--- a/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
+++ b/InputData/elec/GBSC/Grid Battery Storage Capacities.xlsx
@@ -4,88 +4,40 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="About" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Available data" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Potential" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="BGBSC" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="PAGBSC" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="SYGBSC" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Calculation" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="BGBSC" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="PAGBSC" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="SYGBSC" sheetId="5" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
   <definedNames>
     <definedName name="gigwatts_to_megawatts">About!$A$32</definedName>
   </definedNames>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId11" roundtripDataSignature="AMtx7mh/wJANBZXAnux2ybxADSri2+rx2Q=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="58">
   <si>
     <t>Source:</t>
   </si>
   <si>
-    <t>Potential Additional Battery Storage Capacity</t>
+    <t>PV and Battery</t>
   </si>
   <si>
-    <t>IESR</t>
-  </si>
-  <si>
-    <t>Battery Energy Storage System (BESS) market di Indonesia</t>
-  </si>
-  <si>
-    <t>http://iesr.or.id/wp-content/uploads/2019/10/2019-10-10-Bahan-Paparan-Akselerasi-PLTS-Mencapai-65-GW-pada-2025-IESR.pdf</t>
-  </si>
-  <si>
-    <t>Page 12</t>
-  </si>
-  <si>
-    <t>Factor to Battery Capacity</t>
-  </si>
-  <si>
-    <t>Ramelan et al.</t>
-  </si>
-  <si>
-    <t>Simulation and Techno-Economic Analysis of On-Grid Battery Energy Storage Systems in Indonesia</t>
-  </si>
-  <si>
-    <t>https://jurnal.uns.ac.id/jeeict/article/view/50492</t>
-  </si>
-  <si>
-    <t>Page 4</t>
+    <t>https://docs.google.com/spreadsheets/d/1fWx2Nak8GdZuL2g9Tq-l0IMYAf5tJmHjynz711nrw5Q/edit?usp=sharing</t>
   </si>
   <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Lampung project (Hijaunesia)</t>
+    <t>We assume BAU GBSC is the 75% of the estimated GBSC and Potential Additional GBSC is the rest 25%</t>
   </si>
   <si>
-    <t>deployment year unknown</t>
+    <t>Current Policy Scenarion (CPS)</t>
   </si>
   <si>
-    <t>Generation capacity</t>
-  </si>
-  <si>
-    <t>MW</t>
-  </si>
-  <si>
-    <t>Battery capacity</t>
-  </si>
-  <si>
-    <t>Potential application</t>
-  </si>
-  <si>
-    <t>Battery capacity (MW)</t>
-  </si>
-  <si>
-    <t>Electricity storage output [TWh]</t>
+    <t>Electricity storage output (GW)</t>
   </si>
   <si>
     <t>Battery utility</t>
@@ -106,13 +58,124 @@
     <t>Total</t>
   </si>
   <si>
-    <t>On Grid Solar PV Capacity (MW)</t>
+    <t>Note: we use the CPS data for estimating the GBSC</t>
   </si>
   <si>
-    <t>Factor to battery capacity</t>
+    <t>Delayed Policy Scenario (DPS)</t>
   </si>
   <si>
-    <t>Battery Capacity (MW)</t>
+    <t>Electricity storage output [TWh_{el}]</t>
+  </si>
+  <si>
+    <t>7,7</t>
+  </si>
+  <si>
+    <t>137,9</t>
+  </si>
+  <si>
+    <t>391,9</t>
+  </si>
+  <si>
+    <t>620,7</t>
+  </si>
+  <si>
+    <t>9,4</t>
+  </si>
+  <si>
+    <t>33,5</t>
+  </si>
+  <si>
+    <t>46,2</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>17,5</t>
+  </si>
+  <si>
+    <t>29,6</t>
+  </si>
+  <si>
+    <t>46,7</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>7,1</t>
+  </si>
+  <si>
+    <t>7,3</t>
+  </si>
+  <si>
+    <t>32,1</t>
+  </si>
+  <si>
+    <t>182,6</t>
+  </si>
+  <si>
+    <t>462,1</t>
+  </si>
+  <si>
+    <t>720,8</t>
+  </si>
+  <si>
+    <t>Best Policy Scenario (BPS)</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>198,3</t>
+  </si>
+  <si>
+    <t>383,9</t>
+  </si>
+  <si>
+    <t>734,5</t>
+  </si>
+  <si>
+    <t>14,1</t>
+  </si>
+  <si>
+    <t>44,6</t>
+  </si>
+  <si>
+    <t>66,4</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>26,3</t>
+  </si>
+  <si>
+    <t>39,5</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>7,4</t>
+  </si>
+  <si>
+    <t>6,9</t>
+  </si>
+  <si>
+    <t>12,3</t>
+  </si>
+  <si>
+    <t>231,4</t>
+  </si>
+  <si>
+    <t>447,6</t>
+  </si>
+  <si>
+    <t>696,2</t>
+  </si>
+  <si>
+    <t>876,8</t>
   </si>
   <si>
     <t>Unit: MW</t>
@@ -134,11 +197,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -152,6 +219,22 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -159,14 +242,30 @@
       <u/>
       <sz val="11.0"/>
       <color theme="10"/>
+      <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="10"/>
+      <b/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <i/>
       <sz val="11.0"/>
@@ -174,7 +273,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,14 +286,8 @@
         <bgColor rgb="FFBFBFBF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <left/>
@@ -202,31 +295,78 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="6" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="164" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -243,12 +383,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5619750" cy="3286125"/>
+    <xdr:ext cx="3667125" cy="2695575"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="0" name="image1.png" title="Image"/>
@@ -256,6 +396,34 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3667125" cy="2657475"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png" title="Image"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -282,35 +450,6 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <externalBook r:id="rId1">
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="AEO Table 9"/>
-      <sheetName val="AEO Table 9 (2019)"/>
-      <sheetName val="RE Futures Data &amp; Calcs"/>
-      <sheetName val="BGBSC"/>
-      <sheetName val="PAGBSC"/>
-      <sheetName val="SYGBSC"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,9 +654,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="7.63"/>
+    <col customWidth="1" min="1" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
@@ -538,61 +677,46 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="5">
-        <v>2021.0</v>
-      </c>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B6" s="8"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="B7" s="5"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="B8" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="5">
-        <v>2021.0</v>
-      </c>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="B11" s="8"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="B12" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="B13" s="8"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
       <c r="B14" s="5"/>
@@ -602,11 +726,7 @@
     </row>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
+    <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1"/>
     <row r="21" ht="14.25" customHeight="1"/>
@@ -1595,7 +1715,7 @@
     <row r="1000" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B5"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -1612,273 +1732,409 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.75"/>
-    <col customWidth="1" min="2" max="8" width="8.63"/>
-    <col customWidth="1" min="9" max="26" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="11.14"/>
+    <col customWidth="1" min="2" max="2" width="33.71"/>
+    <col customWidth="1" min="3" max="8" width="9.86"/>
+    <col customWidth="1" min="9" max="26" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
+      <c r="A2" s="8"/>
+      <c r="B2" s="11" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4">
-        <v>70.0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>15</v>
+      <c r="A3" s="8"/>
+      <c r="B3" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13">
+        <v>2020.0</v>
+      </c>
+      <c r="D3" s="13">
+        <v>2025.0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2030.0</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2035.0</v>
+      </c>
+      <c r="G3" s="13">
+        <v>2040.0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2045.0</v>
+      </c>
+      <c r="I3" s="13">
+        <v>2050.0</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="B4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.2397260273972603</v>
+      </c>
+      <c r="G4" s="14">
+        <v>1.1073059360730593</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2.522831050228311</v>
+      </c>
+      <c r="I4" s="14">
+        <v>5.605022831050228</v>
+      </c>
+    </row>
     <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2022.0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2023.0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>2024.0</v>
+      <c r="A5" s="1"/>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="D5" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.19406392694063926</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.5365296803652969</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.91324200913242</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1.6894977168949772</v>
+      </c>
+      <c r="I5" s="14">
+        <v>2.808219178082192</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>300.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1500.0</v>
+      <c r="A6" s="1"/>
+      <c r="B6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.011415525114155252</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0.45662100456621</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.7990867579908676</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1.4954337899543377</v>
+      </c>
+      <c r="I6" s="14">
+        <v>2.4885844748858448</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
+    <row r="7" ht="14.25" customHeight="1">
+      <c r="B7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.1141552511415525</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.3424657534246575</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.5821917808219178</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.5707762557077625</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.6506849315068494</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.6735159817351598</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1">
+      <c r="B8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>2025.0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>2030.0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2035.0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>2040.0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2045.0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2050.0</v>
+      <c r="B9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.1141552511415525</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.547945205479452</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1.815068493150685</v>
+      </c>
+      <c r="G9" s="15">
+        <v>3.3904109589041096</v>
+      </c>
+      <c r="H9" s="15">
+        <v>6.358447488584477</v>
+      </c>
+      <c r="I9" s="15">
+        <v>11.575342465753426</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>0.0</v>
-      </c>
-      <c r="C10">
-        <v>0.0</v>
-      </c>
-      <c r="D10">
-        <v>0.0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2.1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>9.7</v>
-      </c>
-      <c r="G10" s="8">
-        <v>22.1</v>
-      </c>
-      <c r="H10" s="8">
-        <v>49.1</v>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>0.0</v>
-      </c>
-      <c r="C11">
-        <v>0.0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1.7</v>
-      </c>
-      <c r="E11" s="8">
-        <v>4.7</v>
-      </c>
-      <c r="F11">
-        <v>8.0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>14.8</v>
-      </c>
-      <c r="H11" s="8">
-        <v>24.6</v>
-      </c>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12">
-        <v>0.0</v>
-      </c>
-      <c r="C12">
-        <v>0.0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="E12">
-        <v>4.0</v>
-      </c>
-      <c r="F12">
-        <v>7.0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>13.1</v>
-      </c>
-      <c r="H12" s="8">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13">
-        <v>0.0</v>
-      </c>
-      <c r="C13">
-        <v>1.0</v>
-      </c>
-      <c r="D13">
-        <v>3.0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>5.1</v>
-      </c>
-      <c r="F13">
-        <v>5.0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>5.7</v>
-      </c>
-      <c r="H13" s="8">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14">
-        <v>0.0</v>
-      </c>
-      <c r="C14">
-        <v>0.0</v>
-      </c>
-      <c r="D14">
-        <v>0.0</v>
-      </c>
-      <c r="E14">
-        <v>0.0</v>
-      </c>
-      <c r="F14">
-        <v>0.0</v>
-      </c>
-      <c r="G14">
-        <v>0.0</v>
-      </c>
-      <c r="H14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15">
-        <v>0.0</v>
-      </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:H15" si="1">SUM(C10:C14)</f>
-        <v>1</v>
-      </c>
-      <c r="D15" s="4">
-        <f t="shared" si="1"/>
-        <v>4.8</v>
-      </c>
-      <c r="E15" s="4">
-        <f t="shared" si="1"/>
-        <v>15.9</v>
-      </c>
-      <c r="F15" s="4">
-        <f t="shared" si="1"/>
-        <v>29.7</v>
-      </c>
-      <c r="G15" s="4">
-        <f t="shared" si="1"/>
-        <v>55.7</v>
-      </c>
-      <c r="H15" s="4">
-        <f t="shared" si="1"/>
-        <v>101.4</v>
-      </c>
-    </row>
+    <row r="11" ht="14.25" customHeight="1"/>
+    <row r="12" ht="14.25" customHeight="1"/>
+    <row r="13" ht="14.25" customHeight="1"/>
+    <row r="14" ht="14.25" customHeight="1"/>
+    <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1">
+      <c r="B19" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1">
+      <c r="B20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="17">
+        <v>2020.0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>2025.0</v>
+      </c>
+      <c r="E20" s="17">
+        <v>2030.0</v>
+      </c>
+      <c r="F20" s="17">
+        <v>2035.0</v>
+      </c>
+      <c r="G20" s="17">
+        <v>2040.0</v>
+      </c>
+      <c r="H20" s="17">
+        <v>2045.0</v>
+      </c>
+      <c r="I20" s="17">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1">
+      <c r="B21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1">
+      <c r="B22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D22" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="18">
+        <v>20.0</v>
+      </c>
+      <c r="H22" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1">
+      <c r="B23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="18">
+        <v>8.0</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1">
+      <c r="B24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1.0</v>
+      </c>
+      <c r="E24" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>7.0</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1">
+      <c r="B25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0.0</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" ht="14.25" customHeight="1">
+      <c r="B26" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0.0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1.0</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="27" ht="14.25" customHeight="1"/>
     <row r="28" ht="14.25" customHeight="1"/>
     <row r="29" ht="14.25" customHeight="1"/>
@@ -1888,14 +2144,193 @@
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
+    <row r="36" ht="14.25" customHeight="1">
+      <c r="B36" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1">
+      <c r="B37" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="20">
+        <v>2020.0</v>
+      </c>
+      <c r="D37" s="20">
+        <v>2025.0</v>
+      </c>
+      <c r="E37" s="20">
+        <v>2030.0</v>
+      </c>
+      <c r="F37" s="20">
+        <v>2035.0</v>
+      </c>
+      <c r="G37" s="20">
+        <v>2040.0</v>
+      </c>
+      <c r="H37" s="20">
+        <v>2045.0</v>
+      </c>
+      <c r="I37" s="20">
+        <v>2050.0</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1">
+      <c r="B38" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="E38" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="21">
+        <v>605.0</v>
+      </c>
+      <c r="I38" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25" customHeight="1">
+      <c r="B39" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="21">
+        <v>30.0</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25" customHeight="1">
+      <c r="B40" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" s="21">
+        <v>12.0</v>
+      </c>
+      <c r="G40" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="I40" s="21">
+        <v>69.0</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25" customHeight="1">
+      <c r="B41" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="21">
+        <v>4.0</v>
+      </c>
+      <c r="F41" s="21">
+        <v>7.0</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I41" s="21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25" customHeight="1">
+      <c r="B42" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="E42" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="F42" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="G42" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="H42" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="I42" s="21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25" customHeight="1">
+      <c r="B43" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H43" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="44" ht="14.25" customHeight="1"/>
     <row r="45" ht="14.25" customHeight="1"/>
     <row r="46" ht="14.25" customHeight="1"/>
@@ -2864,169 +3299,253 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <tabColor rgb="FF44546A"/>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="23.38"/>
-    <col customWidth="1" min="2" max="26" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="33.14"/>
+    <col customWidth="1" min="2" max="2" width="9.0"/>
+    <col customWidth="1" min="3" max="33" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="B1" s="1">
+      <c r="A1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8">
         <v>2019.0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="8">
         <v>2020.0</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="8">
         <v>2021.0</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="8">
         <v>2022.0</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="8">
         <v>2023.0</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="8">
         <v>2024.0</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="8">
         <v>2025.0</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="8">
         <v>2026.0</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="8">
         <v>2027.0</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="8">
         <v>2028.0</v>
+      </c>
+      <c r="L1" s="8">
+        <v>2029.0</v>
+      </c>
+      <c r="M1" s="8">
+        <v>2030.0</v>
+      </c>
+      <c r="N1" s="8">
+        <v>2031.0</v>
+      </c>
+      <c r="O1" s="8">
+        <v>2032.0</v>
+      </c>
+      <c r="P1" s="8">
+        <v>2033.0</v>
+      </c>
+      <c r="Q1" s="8">
+        <v>2034.0</v>
+      </c>
+      <c r="R1" s="8">
+        <v>2035.0</v>
+      </c>
+      <c r="S1" s="8">
+        <v>2036.0</v>
+      </c>
+      <c r="T1" s="8">
+        <v>2037.0</v>
+      </c>
+      <c r="U1" s="8">
+        <v>2038.0</v>
+      </c>
+      <c r="V1" s="8">
+        <v>2039.0</v>
+      </c>
+      <c r="W1" s="8">
+        <v>2040.0</v>
+      </c>
+      <c r="X1" s="8">
+        <v>2041.0</v>
+      </c>
+      <c r="Y1" s="8">
+        <v>2042.0</v>
+      </c>
+      <c r="Z1" s="8">
+        <v>2043.0</v>
+      </c>
+      <c r="AA1" s="8">
+        <v>2044.0</v>
+      </c>
+      <c r="AB1" s="8">
+        <v>2045.0</v>
+      </c>
+      <c r="AC1" s="8">
+        <v>2046.0</v>
+      </c>
+      <c r="AD1" s="8">
+        <v>2047.0</v>
+      </c>
+      <c r="AE1" s="8">
+        <v>2048.0</v>
+      </c>
+      <c r="AF1" s="8">
+        <v>2049.0</v>
+      </c>
+      <c r="AG1" s="8">
+        <v>2050.0</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="4">
-        <v>63.0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>78.0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>219.0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>160.0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>250.0</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="A2" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="25">
         <v>0.0</v>
       </c>
-      <c r="I2" s="4">
+      <c r="C2" s="25">
         <v>0.0</v>
       </c>
-      <c r="J2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2.0</v>
+      <c r="D2" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="25">
+        <f t="array" ref="E2">TREND(Calculation!$C$9:$D$9,Calculation!$C$3:$D$3,E1)*0.75</f>
+        <v>0.03424657534</v>
+      </c>
+      <c r="F2" s="25">
+        <f t="array" ref="F2">TREND(Calculation!$C$9:$D$9,Calculation!$C$3:$D$3,F1)*0.75</f>
+        <v>0.05136986301</v>
+      </c>
+      <c r="G2" s="25">
+        <f t="array" ref="G2">TREND(Calculation!$C$9:$D$9,Calculation!$C$3:$D$3,G1)*0.75</f>
+        <v>0.06849315068</v>
+      </c>
+      <c r="H2" s="25">
+        <f t="array" ref="H2">TREND(Calculation!$C$9:$D$9,Calculation!$C$3:$D$3,H1)*0.75</f>
+        <v>0.08561643836</v>
+      </c>
+      <c r="I2" s="25">
+        <f t="array" ref="I2">TREND(Calculation!$D$9:$E$9,Calculation!$D$3:$E$3,I1)*0.75</f>
+        <v>0.1506849315</v>
+      </c>
+      <c r="J2" s="25">
+        <f t="array" ref="J2">TREND(Calculation!$D$9:$E$9,Calculation!$D$3:$E$3,J1)*0.75</f>
+        <v>0.2157534247</v>
+      </c>
+      <c r="K2" s="25">
+        <f t="array" ref="K2">TREND(Calculation!$D$9:$E$9,Calculation!$D$3:$E$3,K1)*0.75</f>
+        <v>0.2808219178</v>
+      </c>
+      <c r="L2" s="25">
+        <f t="array" ref="L2">TREND(Calculation!$D$9:$E$9,Calculation!$D$3:$E$3,L1)*0.75</f>
+        <v>0.345890411</v>
+      </c>
+      <c r="M2" s="25">
+        <f t="array" ref="M2">TREND(Calculation!$D$9:$E$9,Calculation!$D$3:$E$3,M1)*0.75</f>
+        <v>0.4109589041</v>
+      </c>
+      <c r="N2" s="25">
+        <f t="array" ref="N2">TREND(Calculation!$E$9:$F$9,Calculation!$E$3:$F$3,N1)*0.75</f>
+        <v>0.6010273973</v>
+      </c>
+      <c r="O2" s="25">
+        <f t="array" ref="O2">TREND(Calculation!$E$9:$F$9,Calculation!$E$3:$F$3,O1)*0.75</f>
+        <v>0.7910958904</v>
+      </c>
+      <c r="P2" s="25">
+        <f t="array" ref="P2">TREND(Calculation!$E$9:$F$9,Calculation!$E$3:$F$3,P1)*0.75</f>
+        <v>0.9811643836</v>
+      </c>
+      <c r="Q2" s="25">
+        <f t="array" ref="Q2">TREND(Calculation!$E$9:$F$9,Calculation!$E$3:$F$3,Q1)*0.75</f>
+        <v>1.171232877</v>
+      </c>
+      <c r="R2" s="25">
+        <f t="array" ref="R2">TREND(Calculation!$E$9:$F$9,Calculation!$E$3:$F$3,R1)*0.75</f>
+        <v>1.36130137</v>
+      </c>
+      <c r="S2" s="25">
+        <f t="array" ref="S2">TREND(Calculation!$F$9:$G$9,Calculation!$F$3:$G$3,S1)*0.75</f>
+        <v>1.59760274</v>
+      </c>
+      <c r="T2" s="25">
+        <f t="array" ref="T2">TREND(Calculation!$F$9:$G$9,Calculation!$F$3:$G$3,T1)*0.75</f>
+        <v>1.83390411</v>
+      </c>
+      <c r="U2" s="25">
+        <f t="array" ref="U2">TREND(Calculation!$F$9:$G$9,Calculation!$F$3:$G$3,U1)*0.75</f>
+        <v>2.070205479</v>
+      </c>
+      <c r="V2" s="25">
+        <f t="array" ref="V2">TREND(Calculation!$F$9:$G$9,Calculation!$F$3:$G$3,V1)*0.75</f>
+        <v>2.306506849</v>
+      </c>
+      <c r="W2" s="25">
+        <f t="array" ref="W2">TREND(Calculation!$F$9:$G$9,Calculation!$F$3:$G$3,W1)*0.75</f>
+        <v>2.542808219</v>
+      </c>
+      <c r="X2" s="25">
+        <f t="array" ref="X2">TREND(Calculation!$G$9:$H$9,Calculation!$G$3:$H$3,X1)*0.75</f>
+        <v>2.988013699</v>
+      </c>
+      <c r="Y2" s="25">
+        <f t="array" ref="Y2">TREND(Calculation!$G$9:$H$9,Calculation!$G$3:$H$3,Y1)*0.75</f>
+        <v>3.433219178</v>
+      </c>
+      <c r="Z2" s="25">
+        <f t="array" ref="Z2">TREND(Calculation!$G$9:$H$9,Calculation!$G$3:$H$3,Z1)*0.75</f>
+        <v>3.878424658</v>
+      </c>
+      <c r="AA2" s="25">
+        <f t="array" ref="AA2">TREND(Calculation!$G$9:$H$9,Calculation!$G$3:$H$3,AA1)*0.75</f>
+        <v>4.323630137</v>
+      </c>
+      <c r="AB2" s="25">
+        <f t="array" ref="AB2">TREND(Calculation!$G$9:$H$9,Calculation!$G$3:$H$3,AB1)*0.75</f>
+        <v>4.768835616</v>
+      </c>
+      <c r="AC2" s="25">
+        <f t="array" ref="AC2">TREND(Calculation!$H$9:$I$9,Calculation!$H$3:$I$3,AC1)*0.75</f>
+        <v>5.551369863</v>
+      </c>
+      <c r="AD2" s="25">
+        <f t="array" ref="AD2">TREND(Calculation!$H$9:$I$9,Calculation!$H$3:$I$3,AD1)*0.75</f>
+        <v>6.33390411</v>
+      </c>
+      <c r="AE2" s="25">
+        <f t="array" ref="AE2">TREND(Calculation!$H$9:$I$9,Calculation!$H$3:$I$3,AE1)*0.75</f>
+        <v>7.116438356</v>
+      </c>
+      <c r="AF2" s="25">
+        <f t="array" ref="AF2">TREND(Calculation!$H$9:$I$9,Calculation!$H$3:$I$3,AF1)*0.75</f>
+        <v>7.898972603</v>
+      </c>
+      <c r="AG2" s="25">
+        <f t="array" ref="AG2">TREND(Calculation!$H$9:$I$9,Calculation!$H$3:$I$3,AG1)*0.75</f>
+        <v>8.681506849</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="B4" s="1">
-        <v>2019.0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2020.0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2021.0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2022.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2023.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>2024.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>2025.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>2026.0</v>
-      </c>
-      <c r="J4" s="1">
-        <v>2027.0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2028.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4">
-        <f t="shared" ref="B5:K5" si="1">$B$3*B2</f>
-        <v>12.6</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="1"/>
-        <v>15.6</v>
-      </c>
-      <c r="D5" s="4">
-        <f t="shared" si="1"/>
-        <v>43.8</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="4">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="H5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="K5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.4</v>
-      </c>
-    </row>
+    <row r="3" ht="14.25" customHeight="1"/>
+    <row r="4" ht="14.25" customHeight="1"/>
+    <row r="5" ht="14.25" customHeight="1"/>
     <row r="6" ht="14.25" customHeight="1"/>
     <row r="7" ht="14.25" customHeight="1"/>
     <row r="8" ht="14.25" customHeight="1"/>
@@ -4025,7 +4544,7 @@
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -4039,213 +4558,242 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="29.0"/>
-    <col customWidth="1" min="2" max="2" width="7.88"/>
-    <col customWidth="1" min="3" max="33" width="7.63"/>
+    <col customWidth="1" min="1" max="1" width="47.14"/>
+    <col customWidth="1" min="2" max="2" width="12.86"/>
+    <col customWidth="1" min="3" max="33" width="10.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4">
+      <c r="A1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8">
         <v>2019.0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="8">
         <v>2020.0</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="8">
         <v>2021.0</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="8">
         <v>2022.0</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="8">
         <v>2023.0</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="8">
         <v>2024.0</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="8">
         <v>2025.0</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="8">
         <v>2026.0</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="8">
         <v>2027.0</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="8">
         <v>2028.0</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="8">
         <v>2029.0</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="8">
         <v>2030.0</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="8">
         <v>2031.0</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="8">
         <v>2032.0</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="8">
         <v>2033.0</v>
       </c>
-      <c r="Q1" s="4">
+      <c r="Q1" s="8">
         <v>2034.0</v>
       </c>
-      <c r="R1" s="4">
+      <c r="R1" s="8">
         <v>2035.0</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="8">
         <v>2036.0</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="8">
         <v>2037.0</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="8">
         <v>2038.0</v>
       </c>
-      <c r="V1" s="4">
+      <c r="V1" s="8">
         <v>2039.0</v>
       </c>
-      <c r="W1" s="4">
+      <c r="W1" s="8">
         <v>2040.0</v>
       </c>
-      <c r="X1" s="4">
+      <c r="X1" s="8">
         <v>2041.0</v>
       </c>
-      <c r="Y1" s="4">
+      <c r="Y1" s="8">
         <v>2042.0</v>
       </c>
-      <c r="Z1" s="4">
+      <c r="Z1" s="8">
         <v>2043.0</v>
       </c>
-      <c r="AA1" s="4">
+      <c r="AA1" s="8">
         <v>2044.0</v>
       </c>
-      <c r="AB1" s="4">
+      <c r="AB1" s="8">
         <v>2045.0</v>
       </c>
-      <c r="AC1" s="4">
+      <c r="AC1" s="8">
         <v>2046.0</v>
       </c>
-      <c r="AD1" s="4">
+      <c r="AD1" s="8">
         <v>2047.0</v>
       </c>
-      <c r="AE1" s="4">
+      <c r="AE1" s="8">
         <v>2048.0</v>
       </c>
-      <c r="AF1" s="4">
+      <c r="AF1" s="8">
         <v>2049.0</v>
       </c>
-      <c r="AG1" s="4">
+      <c r="AG1" s="8">
         <v>2050.0</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="12">
+      <c r="A2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="25">
         <v>0.0</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="25">
         <v>0.0</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="25">
         <v>0.0</v>
       </c>
-      <c r="E2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="F2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="G2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="H2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="L2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="M2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="O2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="P2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Q2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="R2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="S2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="T2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="U2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="V2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="W2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="X2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Y2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="Z2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="AA2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="AB2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="AC2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="AD2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="AE2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="AF2" s="12">
-        <v>0.0</v>
-      </c>
-      <c r="AG2" s="12">
-        <v>0.0</v>
+      <c r="E2" s="25">
+        <f t="array" ref="E2">TREND(Calculation!$C$9:$D$9,Calculation!$C$3:$D$3,E1)*0.25</f>
+        <v>0.01141552511</v>
+      </c>
+      <c r="F2" s="25">
+        <f t="array" ref="F2">TREND(Calculation!$C$9:$D$9,Calculation!$C$3:$D$3,F1)*0.25</f>
+        <v>0.01712328767</v>
+      </c>
+      <c r="G2" s="25">
+        <f t="array" ref="G2">TREND(Calculation!$C$9:$D$9,Calculation!$C$3:$D$3,G1)*0.25</f>
+        <v>0.02283105023</v>
+      </c>
+      <c r="H2" s="25">
+        <f t="array" ref="H2">TREND(Calculation!$C$9:$D$9,Calculation!$C$3:$D$3,H1)*0.25</f>
+        <v>0.02853881279</v>
+      </c>
+      <c r="I2" s="25">
+        <f t="array" ref="I2">TREND(Calculation!$D$9:$E$9,Calculation!$D$3:$E$3,I1)*0.25</f>
+        <v>0.0502283105</v>
+      </c>
+      <c r="J2" s="25">
+        <f t="array" ref="J2">TREND(Calculation!$D$9:$E$9,Calculation!$D$3:$E$3,J1)*0.25</f>
+        <v>0.07191780822</v>
+      </c>
+      <c r="K2" s="25">
+        <f t="array" ref="K2">TREND(Calculation!$D$9:$E$9,Calculation!$D$3:$E$3,K1)*0.25</f>
+        <v>0.09360730594</v>
+      </c>
+      <c r="L2" s="25">
+        <f t="array" ref="L2">TREND(Calculation!$D$9:$E$9,Calculation!$D$3:$E$3,L1)*0.25</f>
+        <v>0.1152968037</v>
+      </c>
+      <c r="M2" s="25">
+        <f t="array" ref="M2">TREND(Calculation!$D$9:$E$9,Calculation!$D$3:$E$3,M1)*0.25</f>
+        <v>0.1369863014</v>
+      </c>
+      <c r="N2" s="25">
+        <f t="array" ref="N2">TREND(Calculation!$E$9:$F$9,Calculation!$E$3:$F$3,N1)*0.25</f>
+        <v>0.2003424658</v>
+      </c>
+      <c r="O2" s="25">
+        <f t="array" ref="O2">TREND(Calculation!$E$9:$F$9,Calculation!$E$3:$F$3,O1)*0.25</f>
+        <v>0.2636986301</v>
+      </c>
+      <c r="P2" s="25">
+        <f t="array" ref="P2">TREND(Calculation!$E$9:$F$9,Calculation!$E$3:$F$3,P1)*0.25</f>
+        <v>0.3270547945</v>
+      </c>
+      <c r="Q2" s="25">
+        <f t="array" ref="Q2">TREND(Calculation!$E$9:$F$9,Calculation!$E$3:$F$3,Q1)*0.25</f>
+        <v>0.3904109589</v>
+      </c>
+      <c r="R2" s="25">
+        <f t="array" ref="R2">TREND(Calculation!$E$9:$F$9,Calculation!$E$3:$F$3,R1)*0.25</f>
+        <v>0.4537671233</v>
+      </c>
+      <c r="S2" s="25">
+        <f t="array" ref="S2">TREND(Calculation!$F$9:$G$9,Calculation!$F$3:$G$3,S1)*0.25</f>
+        <v>0.5325342466</v>
+      </c>
+      <c r="T2" s="25">
+        <f t="array" ref="T2">TREND(Calculation!$F$9:$G$9,Calculation!$F$3:$G$3,T1)*0.25</f>
+        <v>0.6113013699</v>
+      </c>
+      <c r="U2" s="25">
+        <f t="array" ref="U2">TREND(Calculation!$F$9:$G$9,Calculation!$F$3:$G$3,U1)*0.25</f>
+        <v>0.6900684932</v>
+      </c>
+      <c r="V2" s="25">
+        <f t="array" ref="V2">TREND(Calculation!$F$9:$G$9,Calculation!$F$3:$G$3,V1)*0.25</f>
+        <v>0.7688356164</v>
+      </c>
+      <c r="W2" s="25">
+        <f t="array" ref="W2">TREND(Calculation!$F$9:$G$9,Calculation!$F$3:$G$3,W1)*0.25</f>
+        <v>0.8476027397</v>
+      </c>
+      <c r="X2" s="25">
+        <f t="array" ref="X2">TREND(Calculation!$G$9:$H$9,Calculation!$G$3:$H$3,X1)*0.25</f>
+        <v>0.9960045662</v>
+      </c>
+      <c r="Y2" s="25">
+        <f t="array" ref="Y2">TREND(Calculation!$G$9:$H$9,Calculation!$G$3:$H$3,Y1)*0.25</f>
+        <v>1.144406393</v>
+      </c>
+      <c r="Z2" s="25">
+        <f t="array" ref="Z2">TREND(Calculation!$G$9:$H$9,Calculation!$G$3:$H$3,Z1)*0.25</f>
+        <v>1.292808219</v>
+      </c>
+      <c r="AA2" s="25">
+        <f t="array" ref="AA2">TREND(Calculation!$G$9:$H$9,Calculation!$G$3:$H$3,AA1)*0.25</f>
+        <v>1.441210046</v>
+      </c>
+      <c r="AB2" s="25">
+        <f t="array" ref="AB2">TREND(Calculation!$G$9:$H$9,Calculation!$G$3:$H$3,AB1)*0.25</f>
+        <v>1.589611872</v>
+      </c>
+      <c r="AC2" s="25">
+        <f t="array" ref="AC2">TREND(Calculation!$H$9:$I$9,Calculation!$H$3:$I$3,AC1)*0.25</f>
+        <v>1.850456621</v>
+      </c>
+      <c r="AD2" s="25">
+        <f t="array" ref="AD2">TREND(Calculation!$H$9:$I$9,Calculation!$H$3:$I$3,AD1)*0.25</f>
+        <v>2.11130137</v>
+      </c>
+      <c r="AE2" s="25">
+        <f t="array" ref="AE2">TREND(Calculation!$H$9:$I$9,Calculation!$H$3:$I$3,AE1)*0.25</f>
+        <v>2.372146119</v>
+      </c>
+      <c r="AF2" s="25">
+        <f t="array" ref="AF2">TREND(Calculation!$H$9:$I$9,Calculation!$H$3:$I$3,AF1)*0.25</f>
+        <v>2.632990868</v>
+      </c>
+      <c r="AG2" s="25">
+        <f t="array" ref="AG2">TREND(Calculation!$H$9:$I$9,Calculation!$H$3:$I$3,AG1)*0.25</f>
+        <v>2.893835616</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
@@ -5263,1221 +5811,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="41.25"/>
-    <col customWidth="1" min="2" max="2" width="11.25"/>
-    <col customWidth="1" min="3" max="33" width="9.25"/>
+    <col customWidth="1" min="1" max="1" width="11.43"/>
+    <col customWidth="1" min="2" max="2" width="12.43"/>
+    <col customWidth="1" min="3" max="26" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4">
-        <v>2019.0</v>
-      </c>
-      <c r="C1" s="4">
-        <v>2020.0</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2021.0</v>
-      </c>
-      <c r="E1" s="4">
-        <v>2022.0</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2023.0</v>
-      </c>
-      <c r="G1" s="4">
-        <v>2024.0</v>
-      </c>
-      <c r="H1" s="4">
-        <v>2025.0</v>
-      </c>
-      <c r="I1" s="4">
-        <v>2026.0</v>
-      </c>
-      <c r="J1" s="4">
-        <v>2027.0</v>
-      </c>
-      <c r="K1" s="4">
-        <v>2028.0</v>
-      </c>
-      <c r="L1" s="4">
-        <v>2029.0</v>
-      </c>
-      <c r="M1" s="4">
-        <v>2030.0</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2031.0</v>
-      </c>
-      <c r="O1" s="4">
-        <v>2032.0</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2033.0</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>2034.0</v>
-      </c>
-      <c r="R1" s="4">
-        <v>2035.0</v>
-      </c>
-      <c r="S1" s="4">
-        <v>2036.0</v>
-      </c>
-      <c r="T1" s="4">
-        <v>2037.0</v>
-      </c>
-      <c r="U1" s="4">
-        <v>2038.0</v>
-      </c>
-      <c r="V1" s="4">
-        <v>2039.0</v>
-      </c>
-      <c r="W1" s="4">
-        <v>2040.0</v>
-      </c>
-      <c r="X1" s="4">
-        <v>2041.0</v>
-      </c>
-      <c r="Y1" s="4">
-        <v>2042.0</v>
-      </c>
-      <c r="Z1" s="4">
-        <v>2043.0</v>
-      </c>
-      <c r="AA1" s="4">
-        <v>2044.0</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>2045.0</v>
-      </c>
-      <c r="AC1" s="4">
-        <v>2046.0</v>
-      </c>
-      <c r="AD1" s="4">
-        <v>2047.0</v>
-      </c>
-      <c r="AE1" s="4">
-        <v>2048.0</v>
-      </c>
-      <c r="AF1" s="4">
-        <v>2049.0</v>
-      </c>
-      <c r="AG1" s="4">
-        <v>2050.0</v>
+      <c r="A1" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="13">
-        <f>Potential!B5</f>
-        <v>12.6</v>
-      </c>
-      <c r="C2" s="13">
-        <f>Potential!C5</f>
-        <v>15.6</v>
-      </c>
-      <c r="D2" s="13">
-        <f>Potential!D5</f>
-        <v>43.8</v>
-      </c>
-      <c r="E2" s="13">
-        <f>Potential!E5</f>
-        <v>32</v>
-      </c>
-      <c r="F2" s="13">
-        <f>Potential!F5</f>
-        <v>0.8</v>
-      </c>
-      <c r="G2" s="13">
-        <f>Potential!G5</f>
-        <v>50</v>
-      </c>
-      <c r="H2" s="13">
-        <f>Potential!H5</f>
-        <v>0</v>
-      </c>
-      <c r="I2" s="13">
-        <f>Potential!I5</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="13">
-        <f>Potential!J5</f>
-        <v>0.4</v>
-      </c>
-      <c r="K2" s="13">
-        <f>Potential!K5</f>
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-    </row>
-    <row r="3" ht="14.25" customHeight="1"/>
-    <row r="4" ht="14.25" customHeight="1"/>
-    <row r="5" ht="14.25" customHeight="1"/>
-    <row r="6" ht="14.25" customHeight="1"/>
-    <row r="7" ht="14.25" customHeight="1"/>
-    <row r="8" ht="14.25" customHeight="1"/>
-    <row r="9" ht="14.25" customHeight="1"/>
-    <row r="10" ht="14.25" customHeight="1"/>
-    <row r="11" ht="14.25" customHeight="1"/>
-    <row r="12" ht="14.25" customHeight="1"/>
-    <row r="13" ht="14.25" customHeight="1"/>
-    <row r="14" ht="14.25" customHeight="1"/>
-    <row r="15" ht="14.25" customHeight="1"/>
-    <row r="16" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="14.25" customHeight="1"/>
-    <row r="222" ht="14.25" customHeight="1"/>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
-  </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF44546A"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="10.88"/>
-    <col customWidth="1" min="3" max="26" width="8.0"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="B3" s="12"/>
+      <c r="B3" s="26"/>
     </row>
     <row r="4" ht="14.25" customHeight="1"/>
     <row r="5" ht="14.25" customHeight="1"/>
